--- a/biology/Botanique/Tricyrtis/Tricyrtis.xlsx
+++ b/biology/Botanique/Tricyrtis/Tricyrtis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tricyrtis est un genre de plantes de la famille des Liliacées, originaires d'Asie (Chine, Japon).
 Les espèces de ce genre sont souvent dénommées Lis crapaud.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit de plantes herbacées pérennes.
 Leur fleur est composée de six sépales : trois extérieurs avec sept nervures, trois intérieurs avec cinq nervures.
@@ -548,7 +562,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Tricyrtis sont originaires d'Asie, de la chaîne himalayenne à l'extrême est pacifique, principalement en Chine et au Japon.
 Certaines espèces sont menacées dans leur milieu d'origine.
@@ -581,11 +597,13 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre est actuellement placé dans la famille des Liliacées. Il a cependant fait partie des familles suivantes : Calochotaceae, Convallariaceae (classification AGP), Tricyrtidaceae (classification AGPII) et Uvulariaceae.
-Le genre a été décrit par Nathaniel Wallich en 1826 à partir d'un échantillon d'une fleur du Népal qu'il a collectée, genre qu'il nomme Tricyrtis[1]. Il effectue un rapprochement avec Uvularia hirta Thunb. qui sera effectivement classé dans le genre Tricyrtis, mais ignore le travail, l'année précédente, de David Don sur l'espèce Compsoa maculata, espèce synonyme de l'espèce type qu'il a choisie Tricyrtis pilosa.
-En effet, l'année précédente, David Don avait décrit le genre Compsoa avec comme espèce type Compsoa maculata. Il a forgé le nom du genre sur le mot grec χομψός : élégant[2]. Cette espèce sera ultérieurement - en 1918 - incluse par James Francis Macbride dans le genre Tricyrtis. Le genre Compsoa est totalement synonyme de Tricyrtis : le nom générique avait été proposé plus d'un an avant Tricyrtis. En toute logique et selon les règles du code de nomenclature botanique, c'est lui qui aurait dû être adopté comme le suggère Carl Ernst Otto Kuntze[3].
+Le genre a été décrit par Nathaniel Wallich en 1826 à partir d'un échantillon d'une fleur du Népal qu'il a collectée, genre qu'il nomme Tricyrtis. Il effectue un rapprochement avec Uvularia hirta Thunb. qui sera effectivement classé dans le genre Tricyrtis, mais ignore le travail, l'année précédente, de David Don sur l'espèce Compsoa maculata, espèce synonyme de l'espèce type qu'il a choisie Tricyrtis pilosa.
+En effet, l'année précédente, David Don avait décrit le genre Compsoa avec comme espèce type Compsoa maculata. Il a forgé le nom du genre sur le mot grec χομψός : élégant. Cette espèce sera ultérieurement - en 1918 - incluse par James Francis Macbride dans le genre Tricyrtis. Le genre Compsoa est totalement synonyme de Tricyrtis : le nom générique avait été proposé plus d'un an avant Tricyrtis. En toute logique et selon les règles du code de nomenclature botanique, c'est lui qui aurait dû être adopté comme le suggère Carl Ernst Otto Kuntze.
 Une synonymie assez importante affecte ce genre où sur 78 taxons répertoriés, 40 sont considérés comme synonymes.
 </t>
         </is>
@@ -615,7 +633,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La liste est issue de quatre index : IPNI (The International Plant Names Index) (index de référence), Tropicos (index du Jardin botanique du Missouri), GRIN (Taxonomie des plantes de GRIN) et The Plant List à la date de janvier 2012. Les espèces conservées dans le genre sont mises en gras :
 Tricyrtis affinis Makino (1903)
@@ -657,7 +677,7 @@
 Tricyrtis ishiiana (Kitag. &amp; T.Koyama) Ohwi &amp; Okuyama (1962)
 Tricyrtis ishiiana var. surugensis Yamazaki (1962)
 Tricyrtis japonica Miq. (1868) : voir Tricyrtis hirta (Thunb.) Hook.
-Tricyrtis japonica var. albida (Makino) Masam. (1930) : voir Tricyrtis affinis Makino[4]
+Tricyrtis japonica var. albida (Makino) Masam. (1930) : voir Tricyrtis affinis Makino
 Tricyrtis kotoensis G.W.Rob. (1938) : voir Tricyrtis formosana var. kotoensis (G.W.Rob.) Sato
 Tricyrtis kyusyuensis Masam. (1935) : voir Tricyrtis flava Maxim.
 Tricyrtis kyusyuensis var. pseudoflava Masam. (1935) : voir Tricyrtis flava Maxim.
@@ -687,7 +707,7 @@
 Tricyrtis ovatifolia S.S.Ying (1972) : voir Tricyrtis formosana var. ovatifolia (S.S.Ying) S.S.Ying
 Tricyrtis parviflora Dammer (1918) : voir Tricyrtis affinis Makino
 Tricyrtis perfoliata Masam. (1935)
-Tricyrtis pilosa Wall. (1826) : voir Tricyrtis maculata (D.Don) J.F.Macbr..[5]
+Tricyrtis pilosa Wall. (1826) : voir Tricyrtis maculata (D.Don) J.F.Macbr..
 Tricyrtis pseudolatifolia Hir.Takah.bis &amp; H. Koyama (2007)
 Tricyrtis puberula Nakai &amp; Kitag. (1934) : voir Tricyrtis latifolia Maxim.
 Tricyrtis ravenii C.I. Peng &amp; C.L.Tiang (2007)
@@ -695,7 +715,7 @@
 Tricyrtis stolonifera Matsum. (1897)
 Tricyrtis suzukii Masam. (1931)
 Tricyrtis viridula Hir. Takah. (1997)
-Tricyrtis yatabeana Masam. (1930) : voir Tricyrtis flava Maxim.[6]</t>
+Tricyrtis yatabeana Masam. (1930) : voir Tricyrtis flava Maxim.</t>
         </is>
       </c>
     </row>
